--- a/エボライベント.xlsx
+++ b/エボライベント.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>イベントID</t>
     <phoneticPr fontId="1"/>
@@ -50,153 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>米国内で初めてエボラ出血熱の感染が確認されていたリベリア人男性(42)が８日朝、南部テキサス州ダラスの病院で志望した。</t>
-    <rPh sb="0" eb="3">
-      <t>ベイコクナイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>シュッケツネツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カンセン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ジン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ダンセイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>アサ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ナンブ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ビョウイン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>英BBC放送によると、英政府は８日、西アフリカのシエラレオネに対し、エボラ出血熱の治療施設の建設を支援するため、約７５０人の軍部隊を送ることを決めた。</t>
-    <rPh sb="0" eb="1">
-      <t>エイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホウソウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>エイセイフ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ニシ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>シュッケt</t>
-    </rPh>
-    <rPh sb="41" eb="45">
-      <t>チリョウシセツ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ケンセツ</t>
-    </rPh>
-    <rPh sb="49" eb="55">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="62" eb="65">
-      <t>グンブタイ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>世界銀行のジム・ヨン・キム総裁は９日、エボラ出血熱の早期封じ込めができなかった場合、最大３２６億㌦（約３・５兆円）の経済損失が発生するとの試算を示した。</t>
-    <rPh sb="0" eb="4">
-      <t>セカイギンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソウサイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="22" eb="26">
-      <t>シュッケ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ソウキ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>フウ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>コメガデ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ドル</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>チョウエン</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ケイザイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ソンシツ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>シサン</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>非統計情報</t>
     <rPh sb="0" eb="5">
       <t>ヒトウケイジョウホウ</t>
@@ -226,101 +79,692 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>世界保健機関（WHO)のエイルワード事務局長補は１４日のジュネーブでの記者会見で、西アフリカでのエボラ出血熱の感染拡大について、１周間当たりの新たな感染者数が現在の約１０００人から１２月上旬には５０００〜１万人になる恐れがあると指摘した。こうした内容は、エボラ出血熱をめぐる１４日の国連安全保障理事会の会合でも報告された。主要な感染地域であるリベリア、シエラレオネ、ギニアの3カ国での拡大が加速しているとみられるため。</t>
-    <rPh sb="0" eb="6">
+    <t>リベリア、シエラレオネ、ギニア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米のエボラ患者者死亡　米国内で初めてエボラ出血熱の感染が確認されていたリベリア人男性(42)が８日朝、南部テキサス州ダラスの病院で志望した。</t>
+    <rPh sb="0" eb="1">
+      <t>ベイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カンジャシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ベイコクナイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>シュッケツネツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナンブ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ビョウイン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シエラレオネに英軍750人派遣へ　英BBC放送によると、英政府は８日、西アフリカのシエラレオネに対し、エボラ出血熱の治療施設の建設を支援するため、約７５０人の軍部隊を送ることを決めた。</t>
+    <rPh sb="7" eb="9">
+      <t>エイグン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハケン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウソウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>エイセイフ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>シュッケt</t>
+    </rPh>
+    <rPh sb="58" eb="62">
+      <t>チリョウシセツ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ケンセツ</t>
+    </rPh>
+    <rPh sb="66" eb="72">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>グンブタイ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エボラ感染週１万人　１２月上旬 WHO幹部が試算　世界保健機関（WHO)のエイルワード事務局長補は１４日のジュネーブでの記者会見で、西アフリカでのエボラ出血熱の感染拡大について、１周間当たりの新たな感染者数が現在の約１０００人から１２月上旬には５０００〜１万人になる恐れがあると指摘した。こうした内容は、エボラ出血熱をめぐる１４日の国連安全保障理事会の会合でも報告された。主要な感染地域であるリベリア、シエラレオネ、ギニアの3カ国での拡大が加速しているとみられるため。</t>
+    <rPh sb="3" eb="5">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチマンニン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウジュン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンブ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="25" eb="31">
       <t>セカイホケンキカン</t>
     </rPh>
-    <rPh sb="18" eb="22">
+    <rPh sb="43" eb="47">
       <t>ジムキョクチョウ</t>
     </rPh>
-    <rPh sb="22" eb="23">
+    <rPh sb="47" eb="48">
       <t>ホ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="60" eb="64">
+      <t>キシャカイ</t>
+    </rPh>
+    <rPh sb="66" eb="71">
+      <t>ニシアフ</t>
+    </rPh>
+    <rPh sb="76" eb="80">
+      <t>シュッケ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>カンセンカク</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>シュウカン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="99" eb="103">
+      <t>カンセンシャスウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ガツジョウジュン</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>イチマンニン</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="155" eb="158">
+      <t>シュッケ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="166" eb="175">
+      <t>コクレンアンゼンホショウリジカイ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="189" eb="193">
+      <t>カンセンチイキ</t>
+    </rPh>
+    <rPh sb="212" eb="215">
+      <t>サンカコク</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>カソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米で２人目感染か　一方、米テキサス州の保健当局は１５日、エボラ熱で死亡したリベリア人男性の治療に従事した同州ダラスの病院の女性職員がエボラ熱に陽性反応を示したと発表した。米疾病対策センター（CDC)の検査で感染が確認されれば、米国内で感染したのは２人目となる。</t>
+    <rPh sb="0" eb="1">
+      <t>ベイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>フタリメカンセン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ベイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウキョク</t>
     </rPh>
     <rPh sb="26" eb="27">
       <t>ニチ</t>
     </rPh>
-    <rPh sb="35" eb="39">
-      <t>キシャカイ</t>
-    </rPh>
-    <rPh sb="41" eb="46">
-      <t>ニシアフ</t>
-    </rPh>
-    <rPh sb="51" eb="55">
+    <rPh sb="31" eb="32">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ジンダンセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>チリョウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ドウシュウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ビョウイン</t>
+    </rPh>
+    <rPh sb="61" eb="65">
+      <t>ジョセイショクイン</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>ヨウセイハンノウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ベイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>シツビョウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="113" eb="116">
+      <t>ベイコクナイ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統計情報</t>
+    <rPh sb="0" eb="4">
+      <t>トウケイジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エボラ損失3.5兆円　世界総裁が試算　世界銀行のジム・ヨン・キム総裁は９日、エボラ出血熱の早期封じ込めができなかった場合、最大３２６億㌦（約３・５兆円）の経済損失が発生するとの試算を示した。総裁は、被害が深刻化するリベリア、シエラレオネ、ギニアの大統領とともにワシントン市内でシンポジウムに出席し、「対応が立ち遅れているのは明らかだ」と述べた。</t>
+    <rPh sb="3" eb="5">
+      <t>ソンシツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウエン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>セカイソウサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>セカイギンコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ソウサイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="41" eb="45">
       <t>シュッケ</t>
     </rPh>
-    <rPh sb="55" eb="59">
-      <t>カンセンカク</t>
+    <rPh sb="45" eb="47">
+      <t>ソウキ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>フウ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>コメガデ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ドル</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>チョウエン</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ケイザイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ソンシツ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ソウサイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ヒガイ</t>
+    </rPh>
+    <rPh sb="102" eb="105">
+      <t>シンコクカ</t>
+    </rPh>
+    <rPh sb="123" eb="126">
+      <t>ダイトウリョウ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>シナイ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非統計情報</t>
+    <rPh sb="0" eb="5">
+      <t>ヒトウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本の検査体制に穴　危険ウイルス 培養されず　エボラ出血熱への対策が国際的な課題をなっているにもかかわらず、日本では感染が疑われる患者が見つかってもウイルスを調べる体制が整っておらず、確実な診断ができないことに懸念が広がっている。危険性が高いウイルスを扱う能力を備えた施設はあるが、制度上、取り扱いが許されていないためだ。厚生労働省の担当者は「現状では感染の疑いの有無までしか調べられない」という。</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ケンサタイセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キケン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>シュッケツネツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>コクサイテキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ウタガ</t>
     </rPh>
     <rPh sb="65" eb="67">
-      <t>シュウカン</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ア</t>
+      <t>カンジャ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>タイセイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>トトノ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>カクジツ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ケネン</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="115" eb="118">
+      <t>キケンセイ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ソナ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="141" eb="144">
+      <t>セイドジョウ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="161" eb="165">
+      <t>コウセイロウドウ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="167" eb="170">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>ウタガ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エボラ熱 新たな争点　オバマ大統領 対策優先、遊説を中止　オバマ大統領は１５日、予定していた中間選挙（１１月４日投開票）に向けた地方遊説などを急きょとりやめ、エボラ出血熱の対策に取り組んだ。米国内での感染者が確認され、対応の不十分さが次々と明らかになったからだ。共和、民主両党はエボラ熱を巡る批判の応酬を始めており、中間選挙の争点の一つになりそうだ。</t>
+    <rPh sb="3" eb="4">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウテン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ダイトウリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイサクユウセン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ユウセツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>セツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="46" eb="50">
+      <t>チュウカンセンキョ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>トウカイヒョウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>チホウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ユウセツ</t>
     </rPh>
     <rPh sb="71" eb="72">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="74" eb="78">
-      <t>カンセンシャスウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="92" eb="95">
-      <t>ガツジョウジュン</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>イチマンニン</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="130" eb="133">
-      <t>シュッケ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="141" eb="150">
-      <t>コクレンアンゼンホショウリジカイ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>ホウコク</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>シュヨウ</t>
-    </rPh>
-    <rPh sb="164" eb="168">
-      <t>カンセンチイキ</t>
-    </rPh>
-    <rPh sb="187" eb="190">
-      <t>サンカコク</t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t>カクダイ</t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t>カソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リベリア、シエラレオネ、ギニア</t>
+      <t>キュウキョ</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>シュッケツネツ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ベイコク</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="100" eb="103">
+      <t>カンセンシャ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="112" eb="115">
+      <t>フジュウブン</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ツギツギ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>キョウワ</t>
+    </rPh>
+    <rPh sb="134" eb="138">
+      <t>ミンシュリョウトウ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>メグ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ヒハン</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>オウシュウ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="158" eb="162">
+      <t>チュウカンセ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ソウテン</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>ヒト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -702,13 +1146,13 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="114.5" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -723,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -740,13 +1184,16 @@
         <v>41920</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="F2">
+        <v>10091</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -757,13 +1204,16 @@
         <v>41920</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="F3">
+        <v>10092</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -774,10 +1224,13 @@
         <v>41921</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1010</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -791,7 +1244,13 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>10161</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -801,15 +1260,42 @@
       <c r="B6" s="1">
         <v>41927</v>
       </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>10162</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>41928</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>10163</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41929</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">

--- a/エボライベント.xlsx
+++ b/エボライベント.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="13660" yWindow="0" windowWidth="13660" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>イベントID</t>
     <phoneticPr fontId="1"/>
@@ -764,6 +764,42 @@
     </rPh>
     <rPh sb="166" eb="167">
       <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エボラ 米ダラス緊迫　朝５時 市職員が戸別訪問</t>
+    <rPh sb="4" eb="5">
+      <t>ベイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キンパク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>シショクイン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>コベツホウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米国</t>
+    <rPh sb="0" eb="2">
+      <t>ベイコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非統計情報</t>
+    <rPh sb="0" eb="5">
+      <t>ヒトウケイジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1143,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1297,20 +1333,34 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>1017</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10</v>
+      <c r="B9" s="1">
+        <v>41929</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
